--- a/app/tables/geopoints/forms/geopoints/geopoints.xlsx
+++ b/app/tables/geopoints/forms/geopoints/geopoints.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
   <si>
     <t>name</t>
   </si>
@@ -148,9 +148,6 @@
   </si>
   <si>
     <t>display.hint</t>
-  </si>
-  <si>
-    <t>true</t>
   </si>
   <si>
     <t>selected(data('transportation_mode)', 'Other')</t>
@@ -338,7 +335,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -380,6 +377,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -745,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -771,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>0</v>
@@ -831,8 +831,8 @@
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="6" t="s">
-        <v>42</v>
+      <c r="H2" s="15" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -845,13 +845,13 @@
       <c r="D3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>42</v>
+      <c r="H3" s="15" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>5</v>
@@ -862,6 +862,7 @@
       <c r="D4" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="9" t="s">
@@ -873,8 +874,9 @@
       <c r="D5" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="H5" s="15"/>
       <c r="L5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -887,6 +889,7 @@
       <c r="D6" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="9" t="s">
@@ -898,6 +901,10 @@
       <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="H8" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -926,10 +933,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
         <v>53</v>
-      </c>
-      <c r="B1" t="s">
-        <v>54</v>
       </c>
       <c r="C1" t="s">
         <v>40</v>
@@ -1022,7 +1029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1034,13 +1041,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1048,12 +1055,12 @@
         <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1">
         <v>20140512</v>
@@ -1061,7 +1068,7 @@
     </row>
     <row r="4" spans="1:3" ht="30">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>31</v>
@@ -1069,10 +1076,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
